--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H2">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N2">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O2">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P2">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q2">
-        <v>66.25505319271278</v>
+        <v>330.6154879529639</v>
       </c>
       <c r="R2">
-        <v>596.2954787344149</v>
+        <v>2975.539391576675</v>
       </c>
       <c r="S2">
-        <v>0.2659470093011597</v>
+        <v>0.5157764934556299</v>
       </c>
       <c r="T2">
-        <v>0.2659470093011597</v>
+        <v>0.5157764934556299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H3">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.181434</v>
       </c>
       <c r="O3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q3">
-        <v>21.01699485001889</v>
+        <v>71.01463773854022</v>
       </c>
       <c r="R3">
-        <v>189.15295365017</v>
+        <v>639.131739646862</v>
       </c>
       <c r="S3">
-        <v>0.08436197173674842</v>
+        <v>0.1107863429616978</v>
       </c>
       <c r="T3">
-        <v>0.08436197173674842</v>
+        <v>0.1107863429616978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H4">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>3.287074</v>
       </c>
       <c r="N4">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q4">
-        <v>12.80808931945667</v>
+        <v>43.27744426046067</v>
       </c>
       <c r="R4">
-        <v>115.27280387511</v>
+        <v>389.496998344146</v>
       </c>
       <c r="S4">
-        <v>0.05141152086111787</v>
+        <v>0.06751495093163186</v>
       </c>
       <c r="T4">
-        <v>0.05141152086111787</v>
+        <v>0.06751495093163185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N5">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O5">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P5">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q5">
-        <v>55.04514735164</v>
+        <v>81.29165551299999</v>
       </c>
       <c r="R5">
-        <v>495.4063261647599</v>
+        <v>731.624899617</v>
       </c>
       <c r="S5">
-        <v>0.2209505782469197</v>
+        <v>0.1268189983696808</v>
       </c>
       <c r="T5">
-        <v>0.2209505782469196</v>
+        <v>0.1268189983696808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.181434</v>
       </c>
       <c r="O6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q6">
         <v>17.46106180072</v>
@@ -818,10 +818,10 @@
         <v>157.14955620648</v>
       </c>
       <c r="S6">
-        <v>0.07008849802923342</v>
+        <v>0.02724011897733199</v>
       </c>
       <c r="T6">
-        <v>0.07008849802923343</v>
+        <v>0.02724011897733199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>3.287074</v>
       </c>
       <c r="N7">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q7">
         <v>10.64104743576</v>
       </c>
       <c r="R7">
-        <v>95.76942692184001</v>
+        <v>95.76942692183999</v>
       </c>
       <c r="S7">
-        <v>0.04271304006263187</v>
+        <v>0.0166005596625048</v>
       </c>
       <c r="T7">
-        <v>0.04271304006263187</v>
+        <v>0.0166005596625048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N8">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O8">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P8">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q8">
-        <v>43.62803408522122</v>
+        <v>64.43065898086944</v>
       </c>
       <c r="R8">
-        <v>392.652306766991</v>
+        <v>579.875930827825</v>
       </c>
       <c r="S8">
-        <v>0.1751224190086349</v>
+        <v>0.1005150108542893</v>
       </c>
       <c r="T8">
-        <v>0.1751224190086349</v>
+        <v>0.1005150108542893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>16.181434</v>
       </c>
       <c r="O9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q9">
         <v>13.83939976651311</v>
@@ -1004,10 +1004,10 @@
         <v>124.554597898618</v>
       </c>
       <c r="S9">
-        <v>0.05555118894436482</v>
+        <v>0.0215901472955747</v>
       </c>
       <c r="T9">
-        <v>0.05555118894436483</v>
+        <v>0.02159014729557471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>3.287074</v>
       </c>
       <c r="N10">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q10">
-        <v>8.433949268299335</v>
+        <v>8.433949268299333</v>
       </c>
       <c r="R10">
-        <v>75.90554341469401</v>
+        <v>75.90554341469399</v>
       </c>
       <c r="S10">
-        <v>0.03385377380918943</v>
+        <v>0.01315737749165876</v>
       </c>
       <c r="T10">
-        <v>0.03385377380918943</v>
+        <v>0.01315737749165876</v>
       </c>
     </row>
   </sheetData>
